--- a/project/실제개발일정.xlsx
+++ b/project/실제개발일정.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smpsm\영상처리 프로그래밍\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEA9DC6-BAEA-47D2-83D9-70F31D42E147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87F148-6EB8-4FC2-94FB-723067BAACE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19050" yWindow="0" windowWidth="19005" windowHeight="12480" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="기말까지" sheetId="1" r:id="rId1"/>
+    <sheet name="중간까지" sheetId="2" r:id="rId2"/>
+    <sheet name="앞으로 남은거" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="96">
   <si>
     <t>분류</t>
   </si>
@@ -209,9 +211,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>역투영으로 이미지 선택</t>
-  </si>
-  <si>
     <t>장단점 분석</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -237,10 +236,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>원인 분석 및 보완책 찾기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>쓰레시 홀드 응용
 (기능 2) 테스트</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -251,104 +246,170 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>알파 채널 추가하여 저장</t>
+    <t>수정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑백 이미지 쓰레시 홀드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오츠의 알고리즘 적용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>임계값 임의 변경 적용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙바로 임계값 변경 적용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 합성</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 미리보기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 자료 수집</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료 수집</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>창 관리 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파 채널이 추가된 png 파일 만들기 - 실제 개발 일정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레시 홀드 기술 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 연산 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응형 쓰레시 홀드</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파 채널값 변경 코드 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 영역 저장</t>
+  </si>
+  <si>
+    <t>선택 영역 저장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 표현 방식 변경하여 저장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭한 픽셀의 값 가져오기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hue값으로 마스크 분리</t>
+  </si>
+  <si>
+    <t>응용 프로그램 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 저장</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>마스킹 기술 복습</t>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑백 이미지 쓰레시 홀드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오츠의 알고리즘 적용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>임계값 임의 변경 적용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랙바로 임계값 변경 적용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 응용 (추후 추가)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hue값으로 마스크 분리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 배열 모양 변경</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 기능 구현
-(선택)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택 영역 알파 채널
-추가하여 저장 (기능 4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 구현</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 합성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 미리보기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>오목/볼록 효과</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 자료 수집</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료 수집</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>창 관리 복습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 처리 복습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파 채널이 추가된 png 파일 만들기 - 실제 개발 일정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레시 홀드 기술 복습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 연산 복습</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파 채널 값 변경 코드 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 이벤트 처리 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 이벤트 처리 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트 와이즈 연산 복습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>역투영으로 영역 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI 선택</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 입력에 따른
+선택 기능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 확대</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 축소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 초기화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 영역 알파채널 값 설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 저장된 해당 이미지 저장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 노이즈 제거</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 처리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 기능(추후 추가)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 컨볼루션 연산</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 모폴로지(열기, 닫기) 연산</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 미리보기 (마우스 이벤트)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,14 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,19 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,8 +580,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -858,13 +905,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,140 +1129,233 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,135 +1676,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04CCC-E6AF-4A2B-980E-996A1267AED2}">
-  <dimension ref="B1:AC57"/>
+  <dimension ref="B1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA69" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.19921875" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="30" width="4.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="18" thickBot="1"/>
     <row r="2" spans="2:29" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B2" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50"/>
+      <c r="B2" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
     </row>
     <row r="4" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B4" s="58"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="51" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="51" t="s">
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="51" t="s">
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="53"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
     </row>
     <row r="5" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="58"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1850,7 @@
       <c r="S5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="19" t="s">
@@ -1595,98 +1877,98 @@
       <c r="AB5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="34" t="s">
+      <c r="AC5" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="59"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="29">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="26">
         <v>14</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>15</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>16</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>17</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <v>18</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <v>19</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="28">
         <v>20</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="28">
         <v>21</v>
       </c>
       <c r="M6" s="23">
         <v>22</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="28">
         <v>23</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="28">
         <v>24</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="28">
         <v>25</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="28">
         <v>26</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="28">
         <v>27</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="28">
         <v>28</v>
       </c>
       <c r="T6" s="22">
         <v>29</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="28">
         <v>30</v>
       </c>
-      <c r="V6" s="31">
+      <c r="V6" s="28">
         <v>1</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="29">
         <v>2</v>
       </c>
-      <c r="X6" s="31">
+      <c r="X6" s="28">
         <v>3</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="28">
         <v>4</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="28">
         <v>5</v>
       </c>
       <c r="AA6" s="23">
         <v>6</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AB6" s="28">
         <v>7</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="17"/>
@@ -1716,9 +1998,9 @@
       <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="18"/>
@@ -1748,9 +2030,9 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18"/>
@@ -1780,9 +2062,9 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="18"/>
@@ -1812,11 +2094,11 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="35" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="9"/>
@@ -1846,9 +2128,9 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="9"/>
@@ -1878,9 +2160,9 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="9"/>
@@ -1910,12 +2192,12 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="46"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
@@ -1923,7 +2205,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3"/>
@@ -1944,11 +2226,11 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="35" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="9"/>
@@ -1958,7 +2240,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
       <c r="O15" s="4"/>
@@ -1978,9 +2260,9 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="35" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="9"/>
@@ -1990,7 +2272,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
@@ -2010,14 +2292,14 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B17" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>51</v>
+      <c r="B17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="4"/>
@@ -2025,7 +2307,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="28"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="24"/>
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
@@ -2046,10 +2328,10 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="68" t="s">
-        <v>50</v>
+      <c r="B18" s="74"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
@@ -2057,7 +2339,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="28"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="3"/>
@@ -2078,18 +2360,18 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="68" t="s">
-        <v>76</v>
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="9"/>
       <c r="M19" s="4"/>
       <c r="N19" s="3"/>
@@ -2110,10 +2392,10 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="68" t="s">
-        <v>75</v>
+      <c r="B20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="4"/>
@@ -2121,7 +2403,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="28"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="9"/>
       <c r="M20" s="4"/>
       <c r="N20" s="3"/>
@@ -2142,10 +2424,10 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="40" t="s">
-        <v>49</v>
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="4"/>
@@ -2153,7 +2435,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="9"/>
       <c r="M21" s="4"/>
       <c r="N21" s="3"/>
@@ -2174,10 +2456,10 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="68" t="s">
-        <v>52</v>
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="4"/>
@@ -2185,12 +2467,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="24"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="15"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="8"/>
       <c r="S22" s="9"/>
@@ -2206,10 +2488,10 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="67" t="s">
-        <v>79</v>
+      <c r="B23" s="74"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="4"/>
@@ -2217,10 +2499,10 @@
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="15"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="4"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2238,10 +2520,10 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="69" t="s">
-        <v>78</v>
+      <c r="B24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -2270,10 +2552,10 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="41" t="s">
-        <v>57</v>
+      <c r="B25" s="74"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="4"/>
@@ -2282,7 +2564,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="4"/>
       <c r="N25" s="15"/>
       <c r="O25" s="4"/>
@@ -2291,9 +2573,9 @@
       <c r="R25" s="8"/>
       <c r="S25" s="9"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="15"/>
+      <c r="U25" s="3"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="15"/>
+      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="9"/>
@@ -2302,27 +2584,25 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>21</v>
+      <c r="B26" s="74"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="9"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="8"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="9"/>
       <c r="T26" s="4"/>
       <c r="U26" s="3"/>
@@ -2336,10 +2616,10 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="67" t="s">
-        <v>56</v>
+      <c r="B27" s="74"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
@@ -2348,11 +2628,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="4"/>
       <c r="N27" s="15"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="8"/>
       <c r="S27" s="9"/>
@@ -2368,21 +2648,23 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="67" t="s">
-        <v>80</v>
+      <c r="B28" s="74"/>
+      <c r="C28" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="4"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2400,12 +2682,10 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>46</v>
+      <c r="B29" s="74"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="4"/>
@@ -2414,9 +2694,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="4"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -2434,10 +2714,10 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
+      <c r="B30" s="74"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="4"/>
@@ -2446,9 +2726,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="15"/>
       <c r="O30" s="4"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2466,10 +2746,12 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="46"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
+      <c r="B31" s="74"/>
+      <c r="C31" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="4"/>
@@ -2483,9 +2765,9 @@
       <c r="N31" s="3"/>
       <c r="O31" s="4"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="24"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="9"/>
       <c r="T31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="4"/>
@@ -2498,10 +2780,10 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="46"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
+      <c r="B32" s="74"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="4"/>
@@ -2517,25 +2799,25 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="24"/>
+      <c r="S32" s="9"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="3"/>
+      <c r="U32" s="53"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="3"/>
+      <c r="W32" s="15"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="8"/>
-      <c r="Z32" s="9"/>
+      <c r="Z32" s="48"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="3"/>
+      <c r="AB32" s="50"/>
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>59</v>
+      <c r="B33" s="74"/>
+      <c r="C33" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="4"/>
@@ -2553,6 +2835,2222 @@
       <c r="R33" s="8"/>
       <c r="S33" s="9"/>
       <c r="T33" s="4"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B34" s="74"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B35" s="74"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="8"/>
+    </row>
+    <row r="36" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B36" s="74"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="8"/>
+    </row>
+    <row r="37" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B37" s="74"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="8"/>
+    </row>
+    <row r="38" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B38" s="74"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="8"/>
+    </row>
+    <row r="39" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B39" s="74"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="8"/>
+    </row>
+    <row r="40" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B40" s="74"/>
+      <c r="C40" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="50"/>
+      <c r="AC40" s="8"/>
+    </row>
+    <row r="41" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B41" s="74"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="50"/>
+      <c r="AC41" s="8"/>
+    </row>
+    <row r="42" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B42" s="74"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="8"/>
+    </row>
+    <row r="43" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B43" s="74"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="8"/>
+    </row>
+    <row r="44" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B44" s="74"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="8"/>
+    </row>
+    <row r="45" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B45" s="74"/>
+      <c r="C45" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="8"/>
+    </row>
+    <row r="46" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B46" s="74"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="8"/>
+    </row>
+    <row r="47" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B47" s="74"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="8"/>
+    </row>
+    <row r="48" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B48" s="74"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="8"/>
+    </row>
+    <row r="49" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B49" s="74"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="8"/>
+    </row>
+    <row r="50" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B50" s="74"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="8"/>
+    </row>
+    <row r="51" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B51" s="74"/>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="8"/>
+    </row>
+    <row r="52" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B52" s="74"/>
+      <c r="C52" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="8"/>
+    </row>
+    <row r="53" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B53" s="74"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="8"/>
+    </row>
+    <row r="54" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B54" s="74"/>
+      <c r="C54" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="8"/>
+    </row>
+    <row r="55" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B55" s="74"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="50"/>
+      <c r="AC55" s="8"/>
+    </row>
+    <row r="56" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B56" s="74"/>
+      <c r="C56" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="50"/>
+      <c r="AC56" s="8"/>
+    </row>
+    <row r="57" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B57" s="74"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="8"/>
+    </row>
+    <row r="58" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B58" s="74"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="48"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="8"/>
+    </row>
+    <row r="59" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B59" s="74"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="48"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="50"/>
+      <c r="AC59" s="8"/>
+    </row>
+    <row r="60" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B60" s="75"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="8"/>
+    </row>
+    <row r="61" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B61" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="99"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="95"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="8"/>
+    </row>
+    <row r="62" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B62" s="74"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="99"/>
+      <c r="Y62" s="100"/>
+      <c r="Z62" s="100"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="8"/>
+    </row>
+    <row r="63" spans="2:29" s="33" customFormat="1" ht="18" thickBot="1">
+      <c r="B63" s="75"/>
+      <c r="C63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="96"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="98"/>
+      <c r="AC63" s="43"/>
+    </row>
+    <row r="64" spans="2:29">
+      <c r="E64" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B17:B60"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E3:U3"/>
+    <mergeCell ref="V3:AC3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C52:C53"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE715827-48E6-403F-9F8D-9D191B9E474B}">
+  <dimension ref="B1:AC65"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56:C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="30" width="4.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="18" thickBot="1"/>
+    <row r="2" spans="2:29" ht="38.4" customHeight="1" thickBot="1">
+      <c r="B2" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
+    </row>
+    <row r="3" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+    </row>
+    <row r="4" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B4" s="86"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+    </row>
+    <row r="5" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="86"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="26">
+        <v>14</v>
+      </c>
+      <c r="F6" s="27">
+        <v>15</v>
+      </c>
+      <c r="G6" s="28">
+        <v>16</v>
+      </c>
+      <c r="H6" s="28">
+        <v>17</v>
+      </c>
+      <c r="I6" s="28">
+        <v>18</v>
+      </c>
+      <c r="J6" s="28">
+        <v>19</v>
+      </c>
+      <c r="K6" s="28">
+        <v>20</v>
+      </c>
+      <c r="L6" s="28">
+        <v>21</v>
+      </c>
+      <c r="M6" s="23">
+        <v>22</v>
+      </c>
+      <c r="N6" s="28">
+        <v>23</v>
+      </c>
+      <c r="O6" s="28">
+        <v>24</v>
+      </c>
+      <c r="P6" s="28">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>26</v>
+      </c>
+      <c r="R6" s="28">
+        <v>27</v>
+      </c>
+      <c r="S6" s="28">
+        <v>28</v>
+      </c>
+      <c r="T6" s="22">
+        <v>29</v>
+      </c>
+      <c r="U6" s="28">
+        <v>30</v>
+      </c>
+      <c r="V6" s="28">
+        <v>1</v>
+      </c>
+      <c r="W6" s="29">
+        <v>2</v>
+      </c>
+      <c r="X6" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="28">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B9" s="74"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B11" s="74"/>
+      <c r="C11" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B13" s="74"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="74"/>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="74"/>
+      <c r="C15" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="75"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B17" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B18" s="74"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B23" s="74"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="74"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="8"/>
+    </row>
+    <row r="26" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B26" s="74"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B27" s="74"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="8"/>
+    </row>
+    <row r="28" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B28" s="74"/>
+      <c r="C28" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="8"/>
+    </row>
+    <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B29" s="74"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="8"/>
+    </row>
+    <row r="30" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B30" s="74"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="8"/>
+    </row>
+    <row r="31" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B31" s="74"/>
+      <c r="C31" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="8"/>
+    </row>
+    <row r="32" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B32" s="74"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B33" s="74"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="4"/>
       <c r="U33" s="3"/>
       <c r="V33" s="4"/>
       <c r="W33" s="3"/>
@@ -2564,10 +5062,12 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="46"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="67" t="s">
-        <v>60</v>
+      <c r="B34" s="74"/>
+      <c r="C34" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="4"/>
@@ -2596,10 +5096,10 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="46"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="67" t="s">
-        <v>61</v>
+      <c r="B35" s="74"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="4"/>
@@ -2608,7 +5108,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="4"/>
       <c r="N35" s="15"/>
       <c r="O35" s="4"/>
@@ -2628,10 +5128,10 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="46"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="67" t="s">
-        <v>22</v>
+      <c r="B36" s="74"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
@@ -2642,7 +5142,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="15"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="15"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2660,10 +5160,10 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="46"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="67" t="s">
-        <v>62</v>
+      <c r="B37" s="74"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
@@ -2692,10 +5192,10 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B38" s="46"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="1" t="s">
-        <v>47</v>
+      <c r="B38" s="74"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="4"/>
@@ -2706,9 +5206,9 @@
       <c r="K38" s="8"/>
       <c r="L38" s="9"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="8"/>
       <c r="S38" s="9"/>
@@ -2724,10 +5224,10 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B39" s="46"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="1" t="s">
-        <v>53</v>
+      <c r="B39" s="74"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
@@ -2738,9 +5238,9 @@
       <c r="K39" s="8"/>
       <c r="L39" s="9"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="15"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="8"/>
       <c r="S39" s="9"/>
@@ -2756,10 +5256,10 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B40" s="46"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="4"/>
@@ -2788,12 +5288,10 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B41" s="46"/>
-      <c r="C41" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B41" s="74"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="4"/>
@@ -2808,8 +5306,8 @@
       <c r="O41" s="4"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="24"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="9"/>
       <c r="T41" s="4"/>
       <c r="U41" s="3"/>
       <c r="V41" s="4"/>
@@ -2822,12 +5320,12 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B42" s="46"/>
-      <c r="C42" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>64</v>
+      <c r="B42" s="74"/>
+      <c r="C42" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="4"/>
@@ -2840,14 +5338,14 @@
       <c r="M42" s="4"/>
       <c r="N42" s="3"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
       <c r="R42" s="8"/>
       <c r="S42" s="9"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="15"/>
+      <c r="U42" s="3"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="15"/>
+      <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="9"/>
@@ -2856,10 +5354,10 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B43" s="46"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="1" t="s">
-        <v>22</v>
+      <c r="B43" s="74"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="4"/>
@@ -2872,14 +5370,14 @@
       <c r="M43" s="4"/>
       <c r="N43" s="3"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
       <c r="R43" s="8"/>
       <c r="S43" s="9"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="15"/>
+      <c r="U43" s="3"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="15"/>
+      <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="9"/>
@@ -2888,10 +5386,10 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B44" s="46"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="1" t="s">
-        <v>62</v>
+      <c r="B44" s="74"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="4"/>
@@ -2905,13 +5403,13 @@
       <c r="N44" s="3"/>
       <c r="O44" s="4"/>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="8"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
       <c r="S44" s="9"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="15"/>
+      <c r="U44" s="3"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="15"/>
+      <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="9"/>
@@ -2920,10 +5418,10 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="46"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="1" t="s">
-        <v>47</v>
+      <c r="B45" s="74"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="4"/>
@@ -2937,14 +5435,14 @@
       <c r="N45" s="3"/>
       <c r="O45" s="4"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="8"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
       <c r="S45" s="9"/>
       <c r="T45" s="4"/>
       <c r="U45" s="3"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="4"/>
@@ -2952,10 +5450,10 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B46" s="46"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="4"/>
@@ -2975,19 +5473,19 @@
       <c r="T46" s="4"/>
       <c r="U46" s="3"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="28"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="8"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B47" s="46"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="4"/>
@@ -3007,29 +5505,29 @@
       <c r="T47" s="4"/>
       <c r="U47" s="3"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="28"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="8"/>
       <c r="Z47" s="9"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B48" s="46"/>
-      <c r="C48" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>65</v>
+      <c r="B48" s="74"/>
+      <c r="C48" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="8"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="9"/>
       <c r="M48" s="4"/>
       <c r="N48" s="3"/>
@@ -3043,17 +5541,17 @@
       <c r="V48" s="4"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="28"/>
+      <c r="Y48" s="8"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="8"/>
     </row>
     <row r="49" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="46"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="1" t="s">
-        <v>56</v>
+      <c r="B49" s="74"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="4"/>
@@ -3066,8 +5564,8 @@
       <c r="M49" s="4"/>
       <c r="N49" s="3"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
       <c r="R49" s="8"/>
       <c r="S49" s="9"/>
       <c r="T49" s="4"/>
@@ -3075,19 +5573,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="Y49" s="28"/>
+      <c r="Y49" s="8"/>
       <c r="Z49" s="9"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="46"/>
-      <c r="C50" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>68</v>
+      <c r="B50" s="74"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="4"/>
@@ -3100,8 +5596,8 @@
       <c r="M50" s="4"/>
       <c r="N50" s="3"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
       <c r="R50" s="8"/>
       <c r="S50" s="9"/>
       <c r="T50" s="4"/>
@@ -3109,17 +5605,17 @@
       <c r="V50" s="4"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="38"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="9"/>
       <c r="AA50" s="4"/>
-      <c r="AB50" s="39"/>
-      <c r="AC50" s="37"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B51" s="46"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
+      <c r="B51" s="74"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="4"/>
@@ -3132,8 +5628,8 @@
       <c r="M51" s="4"/>
       <c r="N51" s="3"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="8"/>
       <c r="S51" s="9"/>
       <c r="T51" s="4"/>
@@ -3141,17 +5637,17 @@
       <c r="V51" s="4"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="38"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="9"/>
       <c r="AA51" s="4"/>
-      <c r="AB51" s="39"/>
-      <c r="AC51" s="37"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B52" s="46"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="4"/>
@@ -3173,17 +5669,17 @@
       <c r="V52" s="4"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="38"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="9"/>
       <c r="AA52" s="4"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="37"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="8"/>
     </row>
     <row r="53" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B53" s="47"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="4"/>
@@ -3205,21 +5701,19 @@
       <c r="V53" s="4"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="38"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="9"/>
       <c r="AA53" s="4"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="37"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="8"/>
     </row>
     <row r="54" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B54" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>42</v>
+      <c r="B54" s="74"/>
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="4"/>
@@ -3234,24 +5728,26 @@
       <c r="O54" s="4"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="9"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="24"/>
       <c r="T54" s="4"/>
       <c r="U54" s="3"/>
       <c r="V54" s="4"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="38"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="9"/>
       <c r="AA54" s="4"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="37"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B55" s="46"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="1" t="s">
-        <v>40</v>
+      <c r="B55" s="74"/>
+      <c r="C55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>90</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="4"/>
@@ -3273,85 +5769,1194 @@
       <c r="V55" s="4"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="38"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="9"/>
       <c r="AA55" s="4"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="37"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B56" s="47"/>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="74"/>
+      <c r="C56" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="8"/>
+    </row>
+    <row r="57" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B57" s="74"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="8"/>
+    </row>
+    <row r="58" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B58" s="74"/>
+      <c r="C58" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="8"/>
+    </row>
+    <row r="59" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B59" s="74"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="8"/>
+    </row>
+    <row r="60" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B60" s="74"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="8"/>
+    </row>
+    <row r="61" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B61" s="75"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="8"/>
+    </row>
+    <row r="62" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B62" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="8"/>
+    </row>
+    <row r="63" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B63" s="74"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="41"/>
+      <c r="AC63" s="8"/>
+    </row>
+    <row r="64" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B64" s="75"/>
+      <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="27"/>
-    </row>
-    <row r="57" spans="2:29" s="36" customFormat="1">
-      <c r="E57" s="35" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="42"/>
+      <c r="AC64" s="43"/>
+    </row>
+    <row r="65" spans="5:29" s="33" customFormat="1">
+      <c r="E65" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="T57" s="35" t="s">
+      <c r="I65" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="T65" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AC57" s="35" t="s">
+      <c r="AC65" s="32" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="B17:B53"/>
+  <mergeCells count="24">
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B61"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
     <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
     <mergeCell ref="E3:U3"/>
     <mergeCell ref="V3:AC3"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="C7:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1845342-B732-426D-BF93-62EC6A412AA8}">
+  <dimension ref="B1:O42"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="G8:O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="4.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="18" thickBot="1"/>
+    <row r="2" spans="2:15" ht="38.4" customHeight="1" thickBot="1">
+      <c r="B2" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B3" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B4" s="86"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+    </row>
+    <row r="5" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="86"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="87"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="64">
+        <v>28</v>
+      </c>
+      <c r="F6" s="58">
+        <v>29</v>
+      </c>
+      <c r="G6" s="64">
+        <v>30</v>
+      </c>
+      <c r="H6" s="64">
+        <v>1</v>
+      </c>
+      <c r="I6" s="62">
+        <v>2</v>
+      </c>
+      <c r="J6" s="64">
+        <v>3</v>
+      </c>
+      <c r="K6" s="64">
+        <v>4</v>
+      </c>
+      <c r="L6" s="64">
+        <v>5</v>
+      </c>
+      <c r="M6" s="63">
+        <v>6</v>
+      </c>
+      <c r="N6" s="64">
+        <v>7</v>
+      </c>
+      <c r="O6" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B7" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B10" s="74"/>
+      <c r="C10" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B11" s="74"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="74"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B13" s="74"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="74"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="74"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B16" s="74"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B17" s="74"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B18" s="74"/>
+      <c r="C18" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="74"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B20" s="74"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B22" s="74"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B23" s="74"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B25" s="74"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B26" s="74"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B27" s="74"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B28" s="74"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B29" s="74"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="47"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B30" s="74"/>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B31" s="74"/>
+      <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B32" s="74"/>
+      <c r="C32" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B33" s="74"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B34" s="74"/>
+      <c r="C34" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B35" s="74"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B36" s="74"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B37" s="74"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B38" s="75"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B39" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B40" s="74"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B41" s="75"/>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="44"/>
+    </row>
+    <row r="42" spans="2:15" s="33" customFormat="1">
+      <c r="F42" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B7:B38"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:D6"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/실제개발일정.xlsx
+++ b/project/실제개발일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smpsm\영상처리 프로그래밍\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87F148-6EB8-4FC2-94FB-723067BAACE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AB2C40-CD0A-46B2-BC05-20A5EC159A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
   </bookViews>
   <sheets>
     <sheet name="기말까지" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="99">
   <si>
     <t>분류</t>
   </si>
@@ -410,6 +410,18 @@
   </si>
   <si>
     <t>이미지 미리보기 (마우스 이벤트)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영역 침범 출력 알고리즘 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 작성 및 발표자료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 작성</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1047,13 +1059,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,6 +1335,36 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,15 +1383,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1336,25 +1428,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1676,11 +1774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A04CCC-E6AF-4A2B-980E-996A1267AED2}">
-  <dimension ref="B1:AC64"/>
+  <dimension ref="B1:AC65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA69" sqref="AA69"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1694,117 +1792,117 @@
   <sheetData>
     <row r="1" spans="2:29" ht="18" thickBot="1"/>
     <row r="2" spans="2:29" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91"/>
     </row>
     <row r="4" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="79" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="79" t="s">
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="79" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
     </row>
     <row r="5" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="86"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
@@ -1882,9 +1980,9 @@
       </c>
     </row>
     <row r="6" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="87"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="26">
         <v>14</v>
       </c>
@@ -1962,10 +2060,10 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="80" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -1998,8 +2096,8 @@
       <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="74"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
@@ -2030,8 +2128,8 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B9" s="74"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
@@ -2062,8 +2160,8 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="74"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
@@ -2094,8 +2192,8 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -2128,8 +2226,8 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="35" t="s">
         <v>19</v>
       </c>
@@ -2160,8 +2258,8 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="35" t="s">
         <v>20</v>
       </c>
@@ -2192,7 +2290,7 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="74"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
@@ -2226,8 +2324,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="70" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="35" t="s">
@@ -2260,8 +2358,8 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="35" t="s">
         <v>36</v>
       </c>
@@ -2292,10 +2390,10 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="80" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="36" t="s">
@@ -2328,8 +2426,8 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B18" s="74"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
@@ -2360,8 +2458,8 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="36" t="s">
         <v>79</v>
       </c>
@@ -2392,8 +2490,8 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="36" t="s">
         <v>80</v>
       </c>
@@ -2424,8 +2522,8 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="36" t="s">
         <v>65</v>
       </c>
@@ -2456,8 +2554,8 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="38" t="s">
         <v>51</v>
       </c>
@@ -2488,8 +2586,8 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="38" t="s">
         <v>67</v>
       </c>
@@ -2520,8 +2618,8 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="35" t="s">
         <v>68</v>
       </c>
@@ -2552,8 +2650,8 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="74"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="35" t="s">
         <v>81</v>
       </c>
@@ -2584,8 +2682,8 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="37" t="s">
         <v>48</v>
       </c>
@@ -2616,8 +2714,8 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="37" t="s">
         <v>78</v>
       </c>
@@ -2648,8 +2746,8 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="70" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="80" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -2682,8 +2780,8 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="74"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="35" t="s">
         <v>73</v>
       </c>
@@ -2714,8 +2812,8 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="74"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="35" t="s">
         <v>70</v>
       </c>
@@ -2746,8 +2844,8 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="74"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -2780,8 +2878,8 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="74"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="35" t="s">
         <v>72</v>
       </c>
@@ -2812,8 +2910,8 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="74"/>
-      <c r="C33" s="70" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="80" t="s">
         <v>52</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -2846,8 +2944,8 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="74"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="35" t="s">
         <v>69</v>
       </c>
@@ -2878,8 +2976,8 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="35" t="s">
         <v>56</v>
       </c>
@@ -2910,8 +3008,8 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="74"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="35" t="s">
         <v>57</v>
       </c>
@@ -2942,8 +3040,8 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="74"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="35" t="s">
         <v>22</v>
       </c>
@@ -2974,8 +3072,8 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B38" s="74"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="35" t="s">
         <v>58</v>
       </c>
@@ -3006,8 +3104,8 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B39" s="74"/>
-      <c r="C39" s="72"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="35" t="s">
         <v>72</v>
       </c>
@@ -3038,8 +3136,8 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B40" s="74"/>
-      <c r="C40" s="70" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -3072,8 +3170,8 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B41" s="74"/>
-      <c r="C41" s="71"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="35" t="s">
         <v>75</v>
       </c>
@@ -3104,8 +3202,8 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B42" s="74"/>
-      <c r="C42" s="71"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="35" t="s">
         <v>22</v>
       </c>
@@ -3136,8 +3234,8 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B43" s="74"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="35" t="s">
         <v>58</v>
       </c>
@@ -3168,8 +3266,8 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B44" s="74"/>
-      <c r="C44" s="72"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="35" t="s">
         <v>71</v>
       </c>
@@ -3200,8 +3298,8 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="74"/>
-      <c r="C45" s="70" t="s">
+      <c r="B45" s="84"/>
+      <c r="C45" s="80" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -3234,8 +3332,8 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B46" s="74"/>
-      <c r="C46" s="71"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="35" t="s">
         <v>85</v>
       </c>
@@ -3266,8 +3364,8 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B47" s="74"/>
-      <c r="C47" s="71"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="35" t="s">
         <v>86</v>
       </c>
@@ -3298,8 +3396,8 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B48" s="74"/>
-      <c r="C48" s="71"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="35" t="s">
         <v>87</v>
       </c>
@@ -3330,8 +3428,8 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="74"/>
-      <c r="C49" s="71"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="35" t="s">
         <v>61</v>
       </c>
@@ -3362,8 +3460,8 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="74"/>
-      <c r="C50" s="72"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="35" t="s">
         <v>77</v>
       </c>
@@ -3394,7 +3492,7 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B51" s="74"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="2" t="s">
         <v>37</v>
       </c>
@@ -3428,11 +3526,11 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B52" s="74"/>
-      <c r="C52" s="70" t="s">
+      <c r="B52" s="84"/>
+      <c r="C52" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="70" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="9"/>
@@ -3462,9 +3560,9 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B53" s="74"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="94" t="s">
+      <c r="B53" s="84"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="70" t="s">
         <v>94</v>
       </c>
       <c r="E53" s="9"/>
@@ -3494,8 +3592,8 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B54" s="74"/>
-      <c r="C54" s="71" t="s">
+      <c r="B54" s="84"/>
+      <c r="C54" s="81" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -3528,8 +3626,8 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B55" s="74"/>
-      <c r="C55" s="72"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="35" t="s">
         <v>89</v>
       </c>
@@ -3560,8 +3658,8 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B56" s="74"/>
-      <c r="C56" s="70" t="s">
+      <c r="B56" s="84"/>
+      <c r="C56" s="80" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="35" t="s">
@@ -3594,8 +3692,8 @@
       <c r="AC56" s="8"/>
     </row>
     <row r="57" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B57" s="74"/>
-      <c r="C57" s="71"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="35" t="s">
         <v>95</v>
       </c>
@@ -3626,10 +3724,10 @@
       <c r="AC57" s="8"/>
     </row>
     <row r="58" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B58" s="74"/>
-      <c r="C58" s="71"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="35" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="4"/>
@@ -3651,17 +3749,17 @@
       <c r="V58" s="4"/>
       <c r="W58" s="51"/>
       <c r="X58" s="51"/>
-      <c r="Y58" s="8"/>
+      <c r="Y58" s="51"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="50"/>
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B59" s="74"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="1" t="s">
-        <v>92</v>
+      <c r="B59" s="84"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="4"/>
@@ -3681,18 +3779,18 @@
       <c r="T59" s="4"/>
       <c r="U59" s="52"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="3"/>
+      <c r="W59" s="51"/>
       <c r="X59" s="51"/>
-      <c r="Y59" s="8"/>
+      <c r="Y59" s="51"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="50"/>
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B60" s="75"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="1" t="s">
+      <c r="B60" s="85"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E60" s="9"/>
@@ -3715,20 +3813,20 @@
       <c r="V60" s="4"/>
       <c r="W60" s="3"/>
       <c r="X60" s="51"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="95"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="71"/>
       <c r="AA60" s="4"/>
       <c r="AB60" s="50"/>
       <c r="AC60" s="8"/>
     </row>
     <row r="61" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="35" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="9"/>
@@ -3750,17 +3848,17 @@
       <c r="U61" s="52"/>
       <c r="V61" s="4"/>
       <c r="W61" s="3"/>
-      <c r="X61" s="99"/>
+      <c r="X61" s="75"/>
       <c r="Y61" s="8"/>
-      <c r="Z61" s="95"/>
+      <c r="Z61" s="71"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="50"/>
       <c r="AC61" s="8"/>
     </row>
     <row r="62" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="74"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="1" t="s">
+      <c r="B62" s="84"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="35" t="s">
         <v>40</v>
       </c>
       <c r="E62" s="9"/>
@@ -3782,87 +3880,129 @@
       <c r="U62" s="52"/>
       <c r="V62" s="4"/>
       <c r="W62" s="3"/>
-      <c r="X62" s="99"/>
-      <c r="Y62" s="100"/>
-      <c r="Z62" s="100"/>
+      <c r="X62" s="75"/>
+      <c r="Y62" s="76"/>
+      <c r="Z62" s="76"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="57"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="2:29" s="33" customFormat="1" ht="18" thickBot="1">
-      <c r="B63" s="75"/>
-      <c r="C63" s="2" t="s">
+    <row r="63" spans="2:29" ht="18" customHeight="1" thickBot="1">
+      <c r="B63" s="84"/>
+      <c r="C63" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="96"/>
-      <c r="Z63" s="97"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="98"/>
-      <c r="AC63" s="43"/>
-    </row>
-    <row r="64" spans="2:29">
-      <c r="E64" s="32" t="s">
+      <c r="D63" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="101"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="103"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="101"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="105"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="103"/>
+      <c r="X63" s="106"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="108"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="109"/>
+      <c r="AC63" s="104"/>
+    </row>
+    <row r="64" spans="2:29" s="33" customFormat="1" ht="18" thickBot="1">
+      <c r="B64" s="85"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="73"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="74"/>
+      <c r="AC64" s="72"/>
+    </row>
+    <row r="65" spans="5:29">
+      <c r="E65" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="32" t="s">
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="32" t="s">
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="32" t="s">
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="32" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="B2:AC2"/>
     <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B61:B64"/>
     <mergeCell ref="B17:B60"/>
     <mergeCell ref="C17:C27"/>
     <mergeCell ref="C15:C16"/>
@@ -3876,15 +4016,6 @@
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:D6"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="C52:C53"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3912,117 +4043,117 @@
   <sheetData>
     <row r="1" spans="2:29" ht="18" thickBot="1"/>
     <row r="2" spans="2:29" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="79"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="79" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="84"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91"/>
     </row>
     <row r="4" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="79" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="79" t="s">
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="79" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="81"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
     </row>
     <row r="5" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="86"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
@@ -4100,9 +4231,9 @@
       </c>
     </row>
     <row r="6" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="87"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="26">
         <v>14</v>
       </c>
@@ -4180,10 +4311,10 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="80" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="34" t="s">
@@ -4216,8 +4347,8 @@
       <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="74"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
@@ -4248,8 +4379,8 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B9" s="74"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
@@ -4280,8 +4411,8 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="74"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
@@ -4312,8 +4443,8 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -4346,8 +4477,8 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="35" t="s">
         <v>19</v>
       </c>
@@ -4378,8 +4509,8 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="35" t="s">
         <v>20</v>
       </c>
@@ -4410,7 +4541,7 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="74"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
@@ -4444,8 +4575,8 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="70" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="35" t="s">
@@ -4478,8 +4609,8 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="72"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="35" t="s">
         <v>36</v>
       </c>
@@ -4510,10 +4641,10 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="80" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="36" t="s">
@@ -4546,8 +4677,8 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B18" s="74"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="36" t="s">
         <v>49</v>
       </c>
@@ -4578,8 +4709,8 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="36" t="s">
         <v>79</v>
       </c>
@@ -4610,8 +4741,8 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="36" t="s">
         <v>80</v>
       </c>
@@ -4642,8 +4773,8 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="36" t="s">
         <v>65</v>
       </c>
@@ -4674,8 +4805,8 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="38" t="s">
         <v>51</v>
       </c>
@@ -4706,8 +4837,8 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="38" t="s">
         <v>67</v>
       </c>
@@ -4738,8 +4869,8 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="35" t="s">
         <v>68</v>
       </c>
@@ -4770,8 +4901,8 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="74"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="35" t="s">
         <v>81</v>
       </c>
@@ -4802,8 +4933,8 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="37" t="s">
         <v>48</v>
       </c>
@@ -4834,8 +4965,8 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="37" t="s">
         <v>78</v>
       </c>
@@ -4866,8 +4997,8 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="70" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="80" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -4900,8 +5031,8 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="74"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="35" t="s">
         <v>73</v>
       </c>
@@ -4932,8 +5063,8 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="74"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="35" t="s">
         <v>70</v>
       </c>
@@ -4964,8 +5095,8 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="74"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -4998,8 +5129,8 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="74"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="1" t="s">
         <v>46</v>
       </c>
@@ -5030,8 +5161,8 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="74"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
@@ -5062,8 +5193,8 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="74"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="80" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -5096,8 +5227,8 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="35" t="s">
         <v>69</v>
       </c>
@@ -5128,8 +5259,8 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="74"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="35" t="s">
         <v>56</v>
       </c>
@@ -5160,8 +5291,8 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="74"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="35" t="s">
         <v>57</v>
       </c>
@@ -5192,8 +5323,8 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B38" s="74"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="35" t="s">
         <v>22</v>
       </c>
@@ -5224,8 +5355,8 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B39" s="74"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="35" t="s">
         <v>58</v>
       </c>
@@ -5256,8 +5387,8 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B40" s="74"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
@@ -5288,8 +5419,8 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B41" s="74"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="1" t="s">
         <v>72</v>
       </c>
@@ -5320,8 +5451,8 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B42" s="74"/>
-      <c r="C42" s="70" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -5354,8 +5485,8 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B43" s="74"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="35" t="s">
         <v>75</v>
       </c>
@@ -5386,8 +5517,8 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B44" s="74"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="35" t="s">
         <v>22</v>
       </c>
@@ -5418,8 +5549,8 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B45" s="74"/>
-      <c r="C45" s="71"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="35" t="s">
         <v>58</v>
       </c>
@@ -5450,8 +5581,8 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B46" s="74"/>
-      <c r="C46" s="71"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
@@ -5482,8 +5613,8 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B47" s="74"/>
-      <c r="C47" s="72"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="1" t="s">
         <v>71</v>
       </c>
@@ -5514,8 +5645,8 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B48" s="74"/>
-      <c r="C48" s="70" t="s">
+      <c r="B48" s="84"/>
+      <c r="C48" s="80" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -5548,8 +5679,8 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="74"/>
-      <c r="C49" s="71"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="35" t="s">
         <v>85</v>
       </c>
@@ -5580,8 +5711,8 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="74"/>
-      <c r="C50" s="71"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="35" t="s">
         <v>86</v>
       </c>
@@ -5612,8 +5743,8 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B51" s="74"/>
-      <c r="C51" s="71"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="35" t="s">
         <v>87</v>
       </c>
@@ -5644,8 +5775,8 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B52" s="74"/>
-      <c r="C52" s="71"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5807,8 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B53" s="74"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
@@ -5708,7 +5839,7 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B54" s="74"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="2" t="s">
         <v>37</v>
       </c>
@@ -5742,7 +5873,7 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B55" s="74"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="2" t="s">
         <v>91</v>
       </c>
@@ -5776,8 +5907,8 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B56" s="74"/>
-      <c r="C56" s="71" t="s">
+      <c r="B56" s="84"/>
+      <c r="C56" s="81" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -5810,8 +5941,8 @@
       <c r="AC56" s="8"/>
     </row>
     <row r="57" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B57" s="74"/>
-      <c r="C57" s="72"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="1" t="s">
         <v>89</v>
       </c>
@@ -5842,8 +5973,8 @@
       <c r="AC57" s="8"/>
     </row>
     <row r="58" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B58" s="74"/>
-      <c r="C58" s="70" t="s">
+      <c r="B58" s="84"/>
+      <c r="C58" s="80" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -5876,8 +6007,8 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B59" s="74"/>
-      <c r="C59" s="71"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="1" t="s">
         <v>60</v>
       </c>
@@ -5908,8 +6039,8 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B60" s="74"/>
-      <c r="C60" s="71"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="1" t="s">
         <v>61</v>
       </c>
@@ -5940,8 +6071,8 @@
       <c r="AC60" s="8"/>
     </row>
     <row r="61" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B61" s="75"/>
-      <c r="C61" s="72"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="1" t="s">
         <v>77</v>
       </c>
@@ -5972,10 +6103,10 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -6008,8 +6139,8 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B63" s="74"/>
-      <c r="C63" s="72"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="1" t="s">
         <v>40</v>
       </c>
@@ -6040,7 +6171,7 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64" spans="2:29" ht="18" customHeight="1" thickBot="1">
-      <c r="B64" s="75"/>
+      <c r="B64" s="85"/>
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
@@ -6089,6 +6220,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="E3:U3"/>
+    <mergeCell ref="V3:AC3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="B7:B16"/>
@@ -6104,15 +6244,6 @@
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="E3:U3"/>
-    <mergeCell ref="V3:AC3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6140,71 +6271,71 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1"/>
     <row r="2" spans="2:15" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="84"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
     </row>
     <row r="4" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="79" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="79" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="86"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
@@ -6240,9 +6371,9 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="87"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="64">
         <v>28</v>
       </c>
@@ -6278,10 +6409,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="35" t="s">
@@ -6300,8 +6431,8 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="74"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
@@ -6318,8 +6449,8 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B9" s="74"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
@@ -6336,8 +6467,8 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="74"/>
-      <c r="C10" s="70" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="80" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -6356,8 +6487,8 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="35" t="s">
         <v>69</v>
       </c>
@@ -6374,8 +6505,8 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="35" t="s">
         <v>56</v>
       </c>
@@ -6392,8 +6523,8 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="35" t="s">
         <v>57</v>
       </c>
@@ -6410,8 +6541,8 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="35" t="s">
         <v>22</v>
       </c>
@@ -6428,8 +6559,8 @@
       <c r="O14" s="8"/>
     </row>
     <row r="15" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="35" t="s">
         <v>58</v>
       </c>
@@ -6446,8 +6577,8 @@
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
@@ -6464,8 +6595,8 @@
       <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B17" s="74"/>
-      <c r="C17" s="72"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
@@ -6482,8 +6613,8 @@
       <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B18" s="74"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="35" t="s">
@@ -6502,8 +6633,8 @@
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="35" t="s">
         <v>75</v>
       </c>
@@ -6520,8 +6651,8 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="35" t="s">
         <v>22</v>
       </c>
@@ -6538,8 +6669,8 @@
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="35" t="s">
         <v>58</v>
       </c>
@@ -6556,8 +6687,8 @@
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
@@ -6574,8 +6705,8 @@
       <c r="O22" s="8"/>
     </row>
     <row r="23" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
@@ -6592,8 +6723,8 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="80" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -6612,8 +6743,8 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B25" s="74"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="35" t="s">
         <v>85</v>
       </c>
@@ -6630,8 +6761,8 @@
       <c r="O25" s="8"/>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="35" t="s">
         <v>86</v>
       </c>
@@ -6648,8 +6779,8 @@
       <c r="O26" s="8"/>
     </row>
     <row r="27" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="35" t="s">
         <v>87</v>
       </c>
@@ -6666,8 +6797,8 @@
       <c r="O27" s="8"/>
     </row>
     <row r="28" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
@@ -6684,8 +6815,8 @@
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B29" s="74"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="1" t="s">
         <v>77</v>
       </c>
@@ -6702,7 +6833,7 @@
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="74"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
@@ -6722,7 +6853,7 @@
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="74"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
@@ -6742,8 +6873,8 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B32" s="74"/>
-      <c r="C32" s="71" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="81" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -6762,8 +6893,8 @@
       <c r="O32" s="8"/>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="74"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="1" t="s">
         <v>89</v>
       </c>
@@ -6780,8 +6911,8 @@
       <c r="O33" s="8"/>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="74"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="80" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -6800,8 +6931,8 @@
       <c r="O34" s="8"/>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="1" t="s">
         <v>60</v>
       </c>
@@ -6818,8 +6949,8 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B36" s="74"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="1" t="s">
         <v>61</v>
       </c>
@@ -6836,8 +6967,8 @@
       <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="74"/>
-      <c r="C37" s="71"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="1" t="s">
         <v>92</v>
       </c>
@@ -6854,8 +6985,8 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B38" s="75"/>
-      <c r="C38" s="72"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="1" t="s">
         <v>77</v>
       </c>
@@ -6872,10 +7003,10 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -6894,8 +7025,8 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B40" s="74"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
@@ -6912,7 +7043,7 @@
       <c r="O40" s="8"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B41" s="75"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="2" t="s">
         <v>38</v>
       </c>
@@ -6941,6 +7072,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C38"/>
@@ -6950,13 +7088,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="C18:C23"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
